--- a/extended_dataset_.xlsx
+++ b/extended_dataset_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merio\OneDrive\Documents\Master 1 Madrid\2eme Semestre\information retrieval extraction and integration\3rdAssignment\upm-ir-assignment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxboekels/UPM/2nd_Semester/ImageRetrieval/assignment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97BB60C5-084D-4848-BBC8-061FD46F05A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FE5674-A008-6746-AD6E-6FB131BADF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glucose in blood" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="530">
   <si>
     <t>14749-6</t>
   </si>
@@ -1637,12 +1637,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1988,17 +1990,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="78.7265625" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2015,7 +2017,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -2032,7 +2034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -2049,7 +2051,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -2066,7 +2068,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>178</v>
       </c>
@@ -2083,7 +2085,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2100,7 +2102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -2117,7 +2119,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -2134,7 +2136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -2151,7 +2153,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>213</v>
       </c>
@@ -2168,7 +2170,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -2185,7 +2187,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -2202,7 +2204,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>207</v>
       </c>
@@ -2219,7 +2221,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2236,7 +2238,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -2253,7 +2255,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2270,7 +2272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -2287,7 +2289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -2304,7 +2306,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>125</v>
       </c>
@@ -2321,7 +2323,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2338,7 +2340,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2355,7 +2357,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -2372,7 +2374,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -2389,7 +2391,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -2406,7 +2408,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -2423,7 +2425,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>119</v>
       </c>
@@ -2440,7 +2442,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>147</v>
       </c>
@@ -2457,7 +2459,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2474,7 +2476,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -2491,7 +2493,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2508,7 +2510,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -2525,7 +2527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>87</v>
       </c>
@@ -2542,7 +2544,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -2559,7 +2561,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -2576,7 +2578,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -2593,7 +2595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>204</v>
       </c>
@@ -2610,7 +2612,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -2627,7 +2629,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>171</v>
       </c>
@@ -2644,7 +2646,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>162</v>
       </c>
@@ -2661,7 +2663,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>134</v>
       </c>
@@ -2678,7 +2680,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -2695,7 +2697,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -2712,7 +2714,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>187</v>
       </c>
@@ -2729,7 +2731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -2746,7 +2748,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>216</v>
       </c>
@@ -2763,7 +2765,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2780,7 +2782,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -2797,7 +2799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>195</v>
       </c>
@@ -2814,7 +2816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>221</v>
       </c>
@@ -2831,7 +2833,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>210</v>
       </c>
@@ -2848,7 +2850,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>198</v>
       </c>
@@ -2865,7 +2867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>157</v>
       </c>
@@ -2882,7 +2884,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>218</v>
       </c>
@@ -2899,7 +2901,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -2916,7 +2918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>175</v>
       </c>
@@ -2933,7 +2935,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>155</v>
       </c>
@@ -2950,7 +2952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2967,7 +2969,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -2984,7 +2986,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>99</v>
       </c>
@@ -3001,7 +3003,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -3018,7 +3020,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -3035,7 +3037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>189</v>
       </c>
@@ -3052,7 +3054,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>84</v>
       </c>
@@ -3069,7 +3071,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -3086,7 +3088,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>192</v>
       </c>
@@ -3103,7 +3105,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>184</v>
       </c>
@@ -3120,7 +3122,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>168</v>
       </c>
@@ -3137,7 +3139,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>109</v>
       </c>
@@ -3169,17 +3171,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="71.7265625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -3196,7 +3198,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -3213,7 +3215,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -3230,7 +3232,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -3247,7 +3249,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -3264,7 +3266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -3281,7 +3283,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -3298,7 +3300,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -3315,7 +3317,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -3332,7 +3334,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -3349,7 +3351,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -3366,7 +3368,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -3383,7 +3385,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>216</v>
       </c>
@@ -3400,7 +3402,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -3417,7 +3419,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -3434,7 +3436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3451,7 +3453,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -3468,7 +3470,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>181</v>
       </c>
@@ -3485,7 +3487,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>171</v>
       </c>
@@ -3502,7 +3504,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>210</v>
       </c>
@@ -3519,7 +3521,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>218</v>
       </c>
@@ -3536,7 +3538,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>207</v>
       </c>
@@ -3553,7 +3555,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>159</v>
       </c>
@@ -3570,7 +3572,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>221</v>
       </c>
@@ -3587,7 +3589,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -3604,7 +3606,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -3621,7 +3623,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -3638,7 +3640,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>162</v>
       </c>
@@ -3655,7 +3657,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>109</v>
       </c>
@@ -3672,7 +3674,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -3689,7 +3691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -3706,7 +3708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -3723,7 +3725,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -3740,7 +3742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -3757,7 +3759,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>213</v>
       </c>
@@ -3774,7 +3776,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>198</v>
       </c>
@@ -3791,7 +3793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -3808,7 +3810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -3825,7 +3827,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -3842,7 +3844,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>184</v>
       </c>
@@ -3859,7 +3861,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -3876,7 +3878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>165</v>
       </c>
@@ -3893,7 +3895,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -3910,7 +3912,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>157</v>
       </c>
@@ -3927,7 +3929,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -3944,7 +3946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -3961,7 +3963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>134</v>
       </c>
@@ -3978,7 +3980,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -3995,7 +3997,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -4012,7 +4014,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -4029,7 +4031,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>125</v>
       </c>
@@ -4046,7 +4048,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>189</v>
       </c>
@@ -4063,7 +4065,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>195</v>
       </c>
@@ -4080,7 +4082,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>168</v>
       </c>
@@ -4097,7 +4099,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -4114,7 +4116,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>187</v>
       </c>
@@ -4131,7 +4133,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -4148,7 +4150,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>143</v>
       </c>
@@ -4165,7 +4167,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>137</v>
       </c>
@@ -4182,7 +4184,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -4199,7 +4201,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -4216,7 +4218,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>178</v>
       </c>
@@ -4233,7 +4235,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>52</v>
       </c>
@@ -4250,7 +4252,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -4267,7 +4269,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -4284,7 +4286,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>155</v>
       </c>
@@ -4301,7 +4303,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -4318,7 +4320,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>140</v>
       </c>
@@ -4352,17 +4354,17 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="80.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -4379,7 +4381,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -4396,7 +4398,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>168</v>
       </c>
@@ -4413,7 +4415,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -4430,7 +4432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -4447,7 +4449,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>218</v>
       </c>
@@ -4464,7 +4466,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -4481,7 +4483,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -4498,7 +4500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>192</v>
       </c>
@@ -4515,7 +4517,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -4532,7 +4534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -4549,7 +4551,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -4566,7 +4568,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -4583,7 +4585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -4600,7 +4602,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>96</v>
       </c>
@@ -4617,7 +4619,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -4634,7 +4636,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>125</v>
       </c>
@@ -4651,7 +4653,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -4668,7 +4670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>137</v>
       </c>
@@ -4685,7 +4687,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -4702,7 +4704,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -4719,7 +4721,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>184</v>
       </c>
@@ -4736,7 +4738,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>221</v>
       </c>
@@ -4753,7 +4755,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>147</v>
       </c>
@@ -4770,7 +4772,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -4787,7 +4789,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>187</v>
       </c>
@@ -4804,7 +4806,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>195</v>
       </c>
@@ -4821,7 +4823,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -4838,7 +4840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -4855,7 +4857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>157</v>
       </c>
@@ -4872,7 +4874,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>134</v>
       </c>
@@ -4889,7 +4891,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>175</v>
       </c>
@@ -4906,7 +4908,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -4923,7 +4925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -4940,7 +4942,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>123</v>
       </c>
@@ -4957,7 +4959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -4974,7 +4976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>210</v>
       </c>
@@ -4991,7 +4993,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>93</v>
       </c>
@@ -5008,7 +5010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>178</v>
       </c>
@@ -5025,7 +5027,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>159</v>
       </c>
@@ -5042,7 +5044,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -5059,7 +5061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>213</v>
       </c>
@@ -5076,7 +5078,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>198</v>
       </c>
@@ -5093,7 +5095,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -5110,7 +5112,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>201</v>
       </c>
@@ -5127,7 +5129,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -5144,7 +5146,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>140</v>
       </c>
@@ -5161,7 +5163,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -5178,7 +5180,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>155</v>
       </c>
@@ -5195,7 +5197,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>99</v>
       </c>
@@ -5212,7 +5214,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>189</v>
       </c>
@@ -5229,7 +5231,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -5246,7 +5248,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -5263,7 +5265,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>162</v>
       </c>
@@ -5280,7 +5282,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>165</v>
       </c>
@@ -5297,7 +5299,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -5314,7 +5316,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -5331,7 +5333,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>216</v>
       </c>
@@ -5348,7 +5350,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -5365,7 +5367,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -5382,7 +5384,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -5399,7 +5401,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>143</v>
       </c>
@@ -5416,7 +5418,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>152</v>
       </c>
@@ -5433,7 +5435,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -5450,7 +5452,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>171</v>
       </c>
@@ -5467,7 +5469,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>207</v>
       </c>
@@ -5484,7 +5486,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>57</v>
       </c>
@@ -5501,7 +5503,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>204</v>
       </c>
@@ -5528,24 +5530,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1413F0E-3123-4B6A-AF16-38C3A4BA8F8C}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.90625" customWidth="1"/>
-    <col min="2" max="2" width="89.1796875" customWidth="1"/>
-    <col min="3" max="3" width="56.08984375" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="89.1640625" customWidth="1"/>
+    <col min="3" max="3" width="56.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>422</v>
       </c>
@@ -5562,7 +5564,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>417</v>
       </c>
@@ -5579,7 +5581,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>414</v>
       </c>
@@ -5596,7 +5598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>411</v>
       </c>
@@ -5613,7 +5615,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>408</v>
       </c>
@@ -5630,7 +5632,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>405</v>
       </c>
@@ -5647,7 +5649,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>402</v>
       </c>
@@ -5664,7 +5666,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>400</v>
       </c>
@@ -5681,7 +5683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>398</v>
       </c>
@@ -5698,7 +5700,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>396</v>
       </c>
@@ -5715,7 +5717,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>394</v>
       </c>
@@ -5732,7 +5734,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>392</v>
       </c>
@@ -5749,7 +5751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>389</v>
       </c>
@@ -5766,7 +5768,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>387</v>
       </c>
@@ -5783,7 +5785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>384</v>
       </c>
@@ -5800,7 +5802,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>96</v>
       </c>
@@ -5817,7 +5819,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>381</v>
       </c>
@@ -5834,7 +5836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>378</v>
       </c>
@@ -5851,7 +5853,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>376</v>
       </c>
@@ -5868,7 +5870,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>93</v>
       </c>
@@ -5885,7 +5887,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>373</v>
       </c>
@@ -5902,7 +5904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>371</v>
       </c>
@@ -5919,7 +5921,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>368</v>
       </c>
@@ -5936,7 +5938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>365</v>
       </c>
@@ -5953,7 +5955,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>362</v>
       </c>
@@ -5970,7 +5972,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>359</v>
       </c>
@@ -5987,7 +5989,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>356</v>
       </c>
@@ -6004,7 +6006,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>354</v>
       </c>
@@ -6021,7 +6023,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>351</v>
       </c>
@@ -6038,7 +6040,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>348</v>
       </c>
@@ -6055,7 +6057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>345</v>
       </c>
@@ -6072,7 +6074,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>343</v>
       </c>
@@ -6089,7 +6091,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>340</v>
       </c>
@@ -6106,7 +6108,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>337</v>
       </c>
@@ -6123,7 +6125,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>334</v>
       </c>
@@ -6140,7 +6142,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>330</v>
       </c>
@@ -6157,7 +6159,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>326</v>
       </c>
@@ -6174,7 +6176,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>324</v>
       </c>
@@ -6191,7 +6193,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>321</v>
       </c>
@@ -6208,7 +6210,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>318</v>
       </c>
@@ -6225,7 +6227,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>315</v>
       </c>
@@ -6242,7 +6244,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>313</v>
       </c>
@@ -6259,7 +6261,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>311</v>
       </c>
@@ -6276,7 +6278,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>308</v>
       </c>
@@ -6293,7 +6295,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>306</v>
       </c>
@@ -6310,7 +6312,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>303</v>
       </c>
@@ -6327,7 +6329,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>301</v>
       </c>
@@ -6344,7 +6346,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>299</v>
       </c>
@@ -6361,7 +6363,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>296</v>
       </c>
@@ -6378,7 +6380,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>294</v>
       </c>
@@ -6395,7 +6397,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>292</v>
       </c>
@@ -6412,7 +6414,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>289</v>
       </c>
@@ -6429,7 +6431,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>287</v>
       </c>
@@ -6446,7 +6448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>284</v>
       </c>
@@ -6463,7 +6465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>281</v>
       </c>
@@ -6480,7 +6482,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>279</v>
       </c>
@@ -6497,7 +6499,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>275</v>
       </c>
@@ -6514,7 +6516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>272</v>
       </c>
@@ -6531,7 +6533,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>270</v>
       </c>
@@ -6548,7 +6550,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>268</v>
       </c>
@@ -6565,7 +6567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>265</v>
       </c>
@@ -6582,7 +6584,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>263</v>
       </c>
@@ -6599,7 +6601,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>261</v>
       </c>
@@ -6616,7 +6618,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>258</v>
       </c>
@@ -6633,7 +6635,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>255</v>
       </c>
@@ -6650,7 +6652,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>252</v>
       </c>
@@ -6667,7 +6669,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>249</v>
       </c>
@@ -6684,7 +6686,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>246</v>
       </c>
@@ -6701,7 +6703,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>243</v>
       </c>
@@ -6718,7 +6720,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>240</v>
       </c>
@@ -6735,7 +6737,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>236</v>
       </c>
@@ -6752,7 +6754,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>232</v>
       </c>
@@ -6769,7 +6771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>229</v>
       </c>
@@ -6793,25 +6795,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5389FD65-5CDB-4C1A-8515-41848B321F5A}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="68.54296875" customWidth="1"/>
-    <col min="3" max="3" width="29.08984375" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" customWidth="1"/>
+    <col min="2" max="2" width="68.5" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>422</v>
       </c>
@@ -6828,7 +6830,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>528</v>
       </c>
@@ -6845,7 +6847,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>525</v>
       </c>
@@ -6862,7 +6864,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>522</v>
       </c>
@@ -6879,7 +6881,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>519</v>
       </c>
@@ -6896,7 +6898,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>516</v>
       </c>
@@ -6913,7 +6915,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>514</v>
       </c>
@@ -6930,7 +6932,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>511</v>
       </c>
@@ -6947,7 +6949,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>508</v>
       </c>
@@ -6964,7 +6966,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>505</v>
       </c>
@@ -6981,7 +6983,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>502</v>
       </c>
@@ -6998,7 +7000,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>500</v>
       </c>
@@ -7015,7 +7017,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>498</v>
       </c>
@@ -7032,7 +7034,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>494</v>
       </c>
@@ -7049,7 +7051,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>491</v>
       </c>
@@ -7066,7 +7068,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>488</v>
       </c>
@@ -7083,7 +7085,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>485</v>
       </c>
@@ -7100,7 +7102,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>483</v>
       </c>
@@ -7117,7 +7119,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>480</v>
       </c>
@@ -7134,7 +7136,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>477</v>
       </c>
@@ -7151,7 +7153,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>474</v>
       </c>
@@ -7168,7 +7170,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>471</v>
       </c>
@@ -7185,7 +7187,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>468</v>
       </c>
@@ -7202,7 +7204,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>465</v>
       </c>
@@ -7219,7 +7221,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>462</v>
       </c>
@@ -7236,7 +7238,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>459</v>
       </c>
@@ -7253,7 +7255,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>456</v>
       </c>
@@ -7270,7 +7272,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>453</v>
       </c>
@@ -7287,7 +7289,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>450</v>
       </c>
@@ -7304,7 +7306,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>447</v>
       </c>
@@ -7321,7 +7323,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>444</v>
       </c>
@@ -7338,7 +7340,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>441</v>
       </c>
@@ -7355,7 +7357,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>438</v>
       </c>
@@ -7372,7 +7374,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>435</v>
       </c>
@@ -7389,7 +7391,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>432</v>
       </c>
@@ -7406,7 +7408,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>429</v>
       </c>
@@ -7423,7 +7425,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>426</v>
       </c>
@@ -7438,186 +7440,6 @@
       </c>
       <c r="E39" s="1" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D40" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D41" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D42" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D43" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D44" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D45" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D46" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D47" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D48" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D49" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D50" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D51" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D52" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D53" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D54" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D55" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D56" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D57" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D58" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D59" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D60" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D61" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D62" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D63" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D64" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D65" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D66" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D67" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D68" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D69" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D70" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D71" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D72" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D73" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D74" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D75" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
